--- a/Demographics/basic_population_area.xlsx
+++ b/Demographics/basic_population_area.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nolefp\Dropbox\Senior Year\Political Economics\1425 Paper\Data\Demographics\Opstine I Regioni 2015\Povezani Podaci\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nolefp\Dropbox\Senior Year\Political Economics\1425 Paper\Data\Demographics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -18,12 +18,12 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">population_area!$B$1:$I$242</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">population_area!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="114210"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="250">
   <si>
     <t>РЕПУБЛИКА СРБИЈА</t>
   </si>
@@ -786,12 +786,15 @@
   <si>
     <t>Косовскопоморавска област</t>
   </si>
+  <si>
+    <t>71323</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -935,6 +938,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -950,7 +959,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -976,12 +985,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1262,10 +1283,14 @@
     </xf>
     <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal_Sheet1" xfId="2"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -2743,8 +2768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K484"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="C84" sqref="C84"/>
+    <sheetView tabSelected="1" topLeftCell="A163" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="B180" sqref="B180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -7965,8 +7990,8 @@
       <c r="K174" s="20"/>
     </row>
     <row r="175" spans="1:11" s="19" customFormat="1" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A175">
-        <v>70203</v>
+      <c r="A175" s="115" t="s">
+        <v>249</v>
       </c>
       <c r="B175" s="26" t="s">
         <v>202</v>
